--- a/data/Aradas/archetypes/pop_archetypes_family.xlsx
+++ b/data/Aradas/archetypes/pop_archetypes_family.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508B224F-7100-4FC8-B49E-F0B06E6D5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A0F6DE-5157-4214-BD30-DE019405A96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,8 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +444,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +465,7 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -487,8 +494,8 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>1054</v>
+      <c r="C2" s="1">
+        <v>1038</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -513,9 +520,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <f>591/3</f>
-        <v>197</v>
+      <c r="C3" s="1">
+        <v>244</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -537,9 +543,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <f>882/2</f>
-        <v>441</v>
+      <c r="C4" s="1">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -558,9 +563,8 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <f>882/2</f>
-        <v>441</v>
+      <c r="C5" s="1">
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -579,9 +583,8 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <f>591/3</f>
-        <v>197</v>
+      <c r="C6" s="1">
+        <v>820</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -597,9 +600,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <f>591/3</f>
-        <v>197</v>
+      <c r="C7" s="1">
+        <v>592</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -615,8 +617,8 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>199</v>
+      <c r="C8" s="1">
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -638,8 +640,8 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>1397</v>
+      <c r="C9" s="1">
+        <v>593</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
